--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2514"/>
+  <dimension ref="A1:G2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66157,10 +66157,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -66190,10 +66188,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2420">
@@ -66219,10 +66215,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2421">
@@ -66248,10 +66242,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -66281,10 +66273,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -66314,10 +66304,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -66343,10 +66331,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -66376,10 +66362,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2426">
@@ -66409,10 +66393,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -66438,10 +66420,8 @@
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -66463,10 +66443,8 @@
       </c>
       <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -66488,10 +66466,8 @@
       </c>
       <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -66509,10 +66485,8 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2431">
@@ -66534,10 +66508,8 @@
       </c>
       <c r="E2431" t="inlineStr"/>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2432">
@@ -66559,10 +66531,8 @@
       </c>
       <c r="E2432" t="inlineStr"/>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -66580,42 +66550,44 @@
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUN/12</t>
+        </is>
+      </c>
       <c r="C2434" t="inlineStr"/>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/04</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C2435" t="inlineStr"/>
-      <c r="D2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+      <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr">
@@ -66627,189 +66599,129 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr"/>
-      <c r="D2436" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
+      <c r="D2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr"/>
+      <c r="F2436" t="inlineStr"/>
       <c r="G2436" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr"/>
-      <c r="D2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr"/>
+      <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr"/>
       <c r="C2438" t="inlineStr"/>
-      <c r="D2438" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2438" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D2438" t="inlineStr"/>
+      <c r="E2438" t="inlineStr"/>
+      <c r="F2438" t="inlineStr"/>
+      <c r="G2438" t="inlineStr"/>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr"/>
-      <c r="D2439" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D2439" t="inlineStr"/>
+      <c r="E2439" t="inlineStr"/>
+      <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr"/>
       <c r="D2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E2440" t="inlineStr"/>
       <c r="F2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr"/>
       <c r="D2441" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2441" t="inlineStr">
@@ -66821,24 +66733,24 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr"/>
       <c r="D2442" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2442" t="inlineStr">
@@ -66850,28 +66762,24 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr"/>
       <c r="D2443" t="inlineStr">
         <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr"/>
       <c r="F2443" t="inlineStr">
         <is>
-          <t>3.0K</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2443" t="inlineStr">
@@ -66883,28 +66791,24 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr"/>
       <c r="D2444" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr">
         <is>
-          <t>140.0K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G2444" t="inlineStr">
@@ -66916,26 +66820,18 @@
     <row r="2445">
       <c r="A2445" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2445" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2445" t="inlineStr"/>
-      <c r="D2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="F2445" t="inlineStr"/>
       <c r="G2445" t="inlineStr">
         <is>
           <t>3</t>
@@ -66950,15 +66846,11 @@
       </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+      <c r="D2446" t="inlineStr"/>
       <c r="E2446" t="inlineStr"/>
       <c r="F2446" t="inlineStr"/>
       <c r="G2446" t="inlineStr">
@@ -66970,1602 +66862,15 @@
     <row r="2447">
       <c r="A2447" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
-        </is>
-      </c>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr"/>
       <c r="C2447" t="inlineStr"/>
-      <c r="D2447" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
+      <c r="D2447" t="inlineStr"/>
       <c r="E2447" t="inlineStr"/>
       <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr"/>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr"/>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr"/>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr"/>
-      <c r="D2449" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr"/>
-      <c r="C2450" t="inlineStr"/>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr"/>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr"/>
-      <c r="C2452" t="inlineStr"/>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr"/>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr"/>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr"/>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr"/>
-      <c r="D2455" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr"/>
-      <c r="D2456" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E2458" t="inlineStr"/>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr"/>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2459" t="inlineStr"/>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr"/>
-      <c r="D2460" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E2460" t="inlineStr"/>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr"/>
-      <c r="D2461" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E2461" t="inlineStr"/>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr"/>
-      <c r="C2462" t="inlineStr"/>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E2463" t="inlineStr"/>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr"/>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E2464" t="inlineStr"/>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr"/>
-      <c r="D2465" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E2465" t="inlineStr"/>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr"/>
-      <c r="D2466" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr"/>
-      <c r="D2467" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E2467" t="inlineStr"/>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr"/>
-      <c r="D2468" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E2468" t="inlineStr"/>
-      <c r="F2468" t="inlineStr"/>
-      <c r="G2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr"/>
-      <c r="D2469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2469" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr"/>
-      <c r="D2470" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr"/>
-      <c r="D2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2471" t="inlineStr"/>
-      <c r="F2471" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr"/>
-      <c r="D2472" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2472" t="inlineStr"/>
-      <c r="F2472" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G2472" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr"/>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E2473" t="inlineStr"/>
-      <c r="F2473" t="inlineStr">
-        <is>
-          <t>322.1</t>
-        </is>
-      </c>
-      <c r="G2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr"/>
-      <c r="D2474" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E2474" t="inlineStr"/>
-      <c r="F2474" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr"/>
-      <c r="D2475" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E2475" t="inlineStr"/>
-      <c r="F2475" t="inlineStr"/>
-      <c r="G2475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr"/>
-      <c r="D2476" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
-      <c r="G2476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr"/>
-      <c r="D2477" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E2477" t="inlineStr"/>
-      <c r="F2477" t="inlineStr"/>
-      <c r="G2477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr"/>
-      <c r="D2478" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E2478" t="inlineStr"/>
-      <c r="F2478" t="inlineStr"/>
-      <c r="G2478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr"/>
-      <c r="D2479" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E2479" t="inlineStr"/>
-      <c r="F2479" t="inlineStr"/>
-      <c r="G2479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr"/>
-      <c r="D2480" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E2480" t="inlineStr"/>
-      <c r="F2480" t="inlineStr"/>
-      <c r="G2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr"/>
-      <c r="D2481" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E2481" t="inlineStr"/>
-      <c r="F2481" t="inlineStr"/>
-      <c r="G2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr"/>
-      <c r="D2482" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E2482" t="inlineStr"/>
-      <c r="F2482" t="inlineStr"/>
-      <c r="G2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr"/>
-      <c r="D2483" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E2483" t="inlineStr"/>
-      <c r="F2483" t="inlineStr"/>
-      <c r="G2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr"/>
-      <c r="D2484" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E2484" t="inlineStr"/>
-      <c r="F2484" t="inlineStr"/>
-      <c r="G2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr"/>
-      <c r="D2485" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E2485" t="inlineStr"/>
-      <c r="F2485" t="inlineStr"/>
-      <c r="G2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr"/>
-      <c r="D2486" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E2486" t="inlineStr"/>
-      <c r="F2486" t="inlineStr"/>
-      <c r="G2486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2487">
-      <c r="A2487" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr"/>
-      <c r="C2487" t="inlineStr"/>
-      <c r="D2487" t="inlineStr"/>
-      <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr"/>
-      <c r="G2487" t="inlineStr"/>
-    </row>
-    <row r="2488">
-      <c r="A2488" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr"/>
-      <c r="G2488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2489">
-      <c r="A2489" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2489" t="inlineStr"/>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2489" t="inlineStr"/>
-      <c r="F2489" t="inlineStr"/>
-      <c r="G2489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2490">
-      <c r="A2490" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2490" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C2490" t="inlineStr"/>
-      <c r="D2490" t="inlineStr"/>
-      <c r="E2490" t="inlineStr"/>
-      <c r="F2490" t="inlineStr"/>
-      <c r="G2490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2491">
-      <c r="A2491" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2491" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C2491" t="inlineStr"/>
-      <c r="D2491" t="inlineStr"/>
-      <c r="E2491" t="inlineStr"/>
-      <c r="F2491" t="inlineStr"/>
-      <c r="G2491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2492">
-      <c r="A2492" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2492" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2492" t="inlineStr"/>
-      <c r="D2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E2492" t="inlineStr"/>
-      <c r="F2492" t="inlineStr"/>
-      <c r="G2492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2493">
-      <c r="A2493" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2493" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C2493" t="inlineStr"/>
-      <c r="D2493" t="inlineStr"/>
-      <c r="E2493" t="inlineStr"/>
-      <c r="F2493" t="inlineStr"/>
-      <c r="G2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2494">
-      <c r="A2494" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2494" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C2494" t="inlineStr"/>
-      <c r="D2494" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E2494" t="inlineStr"/>
-      <c r="F2494" t="inlineStr"/>
-      <c r="G2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2495">
-      <c r="A2495" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2495" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2495" t="inlineStr"/>
-      <c r="D2495" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2495" t="inlineStr"/>
-      <c r="F2495" t="inlineStr"/>
-      <c r="G2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2496">
-      <c r="A2496" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2496" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2496" t="inlineStr"/>
-      <c r="D2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E2496" t="inlineStr"/>
-      <c r="F2496" t="inlineStr"/>
-      <c r="G2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2497">
-      <c r="A2497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2497" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2497" t="inlineStr"/>
-      <c r="D2497" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2497" t="inlineStr"/>
-      <c r="F2497" t="inlineStr"/>
-      <c r="G2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2498">
-      <c r="A2498" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2498" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2498" t="inlineStr"/>
-      <c r="D2498" t="inlineStr"/>
-      <c r="E2498" t="inlineStr"/>
-      <c r="F2498" t="inlineStr"/>
-      <c r="G2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2499">
-      <c r="A2499" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2499" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2499" t="inlineStr"/>
-      <c r="D2499" t="inlineStr"/>
-      <c r="E2499" t="inlineStr"/>
-      <c r="F2499" t="inlineStr"/>
-      <c r="G2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2500">
-      <c r="A2500" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2500" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2500" t="inlineStr"/>
-      <c r="D2500" t="inlineStr"/>
-      <c r="E2500" t="inlineStr"/>
-      <c r="F2500" t="inlineStr"/>
-      <c r="G2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2501">
-      <c r="A2501" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2501" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2501" t="inlineStr"/>
-      <c r="D2501" t="inlineStr"/>
-      <c r="E2501" t="inlineStr"/>
-      <c r="F2501" t="inlineStr"/>
-      <c r="G2501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2502">
-      <c r="A2502" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2502" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2502" t="inlineStr"/>
-      <c r="D2502" t="inlineStr"/>
-      <c r="E2502" t="inlineStr"/>
-      <c r="F2502" t="inlineStr"/>
-      <c r="G2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2503">
-      <c r="A2503" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2503" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C2503" t="inlineStr"/>
-      <c r="D2503" t="inlineStr"/>
-      <c r="E2503" t="inlineStr"/>
-      <c r="F2503" t="inlineStr"/>
-      <c r="G2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2504">
-      <c r="A2504" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2504" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2504" t="inlineStr"/>
-      <c r="D2504" t="inlineStr"/>
-      <c r="E2504" t="inlineStr"/>
-      <c r="F2504" t="inlineStr"/>
-      <c r="G2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2505">
-      <c r="A2505" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr"/>
-      <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr"/>
-      <c r="E2505" t="inlineStr"/>
-      <c r="F2505" t="inlineStr"/>
-      <c r="G2505" t="inlineStr"/>
-    </row>
-    <row r="2506">
-      <c r="A2506" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr"/>
-      <c r="E2506" t="inlineStr"/>
-      <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2507" t="inlineStr"/>
-      <c r="D2507" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2507" t="inlineStr"/>
-      <c r="F2507" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G2507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2508" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2508" t="inlineStr"/>
-      <c r="D2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2508" t="inlineStr"/>
-      <c r="F2508" t="inlineStr"/>
-      <c r="G2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2509">
-      <c r="A2509" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2509" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2509" t="inlineStr"/>
-      <c r="D2509" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2509" t="inlineStr"/>
-      <c r="F2509" t="inlineStr"/>
-      <c r="G2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2510">
-      <c r="A2510" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2510" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2510" t="inlineStr"/>
-      <c r="D2510" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2510" t="inlineStr"/>
-      <c r="F2510" t="inlineStr"/>
-      <c r="G2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2511">
-      <c r="A2511" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2511" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2511" t="inlineStr"/>
-      <c r="D2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2511" t="inlineStr"/>
-      <c r="F2511" t="inlineStr"/>
-      <c r="G2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2512">
-      <c r="A2512" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2512" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2512" t="inlineStr"/>
-      <c r="D2512" t="inlineStr"/>
-      <c r="E2512" t="inlineStr"/>
-      <c r="F2512" t="inlineStr"/>
-      <c r="G2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2513">
-      <c r="A2513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2513" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2513" t="inlineStr"/>
-      <c r="D2513" t="inlineStr"/>
-      <c r="E2513" t="inlineStr"/>
-      <c r="F2513" t="inlineStr"/>
-      <c r="G2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2514">
-      <c r="A2514" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr"/>
-      <c r="C2514" t="inlineStr"/>
-      <c r="D2514" t="inlineStr"/>
-      <c r="E2514" t="inlineStr"/>
-      <c r="F2514" t="inlineStr"/>
-      <c r="G2514" t="inlineStr"/>
+      <c r="G2447" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2514"/>
+  <dimension ref="A1:G2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66157,10 +66157,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -66190,10 +66188,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2420">
@@ -66219,10 +66215,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2421">
@@ -66248,10 +66242,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -66281,10 +66273,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -66314,10 +66304,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -66343,10 +66331,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -66376,10 +66362,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2426">
@@ -66409,10 +66393,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -66438,10 +66420,8 @@
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -66463,10 +66443,8 @@
       </c>
       <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -66488,10 +66466,8 @@
       </c>
       <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -66509,10 +66485,8 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2431">
@@ -66534,10 +66508,8 @@
       </c>
       <c r="E2431" t="inlineStr"/>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2432">
@@ -66559,10 +66531,8 @@
       </c>
       <c r="E2432" t="inlineStr"/>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -66580,42 +66550,44 @@
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUN/12</t>
+        </is>
+      </c>
       <c r="C2434" t="inlineStr"/>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/04</t>
+          <t>30-Year Mortgage RateJUN/12</t>
         </is>
       </c>
       <c r="C2435" t="inlineStr"/>
-      <c r="D2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+      <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr">
@@ -66627,189 +66599,129 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAY</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr"/>
-      <c r="D2436" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
+      <c r="D2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr"/>
+      <c r="F2436" t="inlineStr"/>
       <c r="G2436" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr"/>
-      <c r="D2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr"/>
+      <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr"/>
       <c r="C2438" t="inlineStr"/>
-      <c r="D2438" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2438" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D2438" t="inlineStr"/>
+      <c r="E2438" t="inlineStr"/>
+      <c r="F2438" t="inlineStr"/>
+      <c r="G2438" t="inlineStr"/>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr"/>
-      <c r="D2439" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="D2439" t="inlineStr"/>
+      <c r="E2439" t="inlineStr"/>
+      <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr"/>
       <c r="D2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E2440" t="inlineStr"/>
       <c r="F2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr"/>
       <c r="D2441" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2441" t="inlineStr">
@@ -66821,24 +66733,24 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr"/>
       <c r="D2442" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2442" t="inlineStr">
@@ -66850,28 +66762,24 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr"/>
       <c r="D2443" t="inlineStr">
         <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr"/>
       <c r="F2443" t="inlineStr">
         <is>
-          <t>3.0K</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2443" t="inlineStr">
@@ -66883,28 +66791,24 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr"/>
       <c r="D2444" t="inlineStr">
         <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr">
         <is>
-          <t>140.0K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G2444" t="inlineStr">
@@ -66916,26 +66820,18 @@
     <row r="2445">
       <c r="A2445" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2445" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2445" t="inlineStr"/>
-      <c r="D2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="F2445" t="inlineStr"/>
       <c r="G2445" t="inlineStr">
         <is>
           <t>3</t>
@@ -66950,15 +66846,11 @@
       </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
+      <c r="D2446" t="inlineStr"/>
       <c r="E2446" t="inlineStr"/>
       <c r="F2446" t="inlineStr"/>
       <c r="G2446" t="inlineStr">
@@ -66970,1654 +66862,15 @@
     <row r="2447">
       <c r="A2447" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
-        </is>
-      </c>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr"/>
       <c r="C2447" t="inlineStr"/>
-      <c r="D2447" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
+      <c r="D2447" t="inlineStr"/>
       <c r="E2447" t="inlineStr"/>
       <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr"/>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr"/>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr"/>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr"/>
-      <c r="D2449" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr"/>
-      <c r="C2450" t="inlineStr"/>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr"/>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr"/>
-      <c r="C2452" t="inlineStr"/>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr"/>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr"/>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr"/>
-      <c r="D2455" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr"/>
-      <c r="D2456" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E2458" t="inlineStr"/>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr"/>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2459" t="inlineStr"/>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr"/>
-      <c r="D2460" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E2460" t="inlineStr"/>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr"/>
-      <c r="D2461" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E2461" t="inlineStr"/>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr"/>
-      <c r="C2462" t="inlineStr"/>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E2463" t="inlineStr"/>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr"/>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E2464" t="inlineStr"/>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr"/>
-      <c r="D2465" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E2465" t="inlineStr"/>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr"/>
-      <c r="D2466" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr"/>
-      <c r="D2467" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E2467" t="inlineStr"/>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr"/>
-      <c r="D2468" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E2468" t="inlineStr"/>
-      <c r="F2468" t="inlineStr"/>
-      <c r="G2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr"/>
-      <c r="D2469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2469" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr"/>
-      <c r="D2470" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr"/>
-      <c r="D2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2471" t="inlineStr"/>
-      <c r="F2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr"/>
-      <c r="D2472" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2472" t="inlineStr"/>
-      <c r="F2472" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G2472" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr"/>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E2473" t="inlineStr"/>
-      <c r="F2473" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr"/>
-      <c r="D2474" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E2474" t="inlineStr"/>
-      <c r="F2474" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr"/>
-      <c r="D2475" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E2475" t="inlineStr"/>
-      <c r="F2475" t="inlineStr"/>
-      <c r="G2475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr"/>
-      <c r="D2476" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
-      <c r="G2476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr"/>
-      <c r="D2477" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E2477" t="inlineStr"/>
-      <c r="F2477" t="inlineStr"/>
-      <c r="G2477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr"/>
-      <c r="D2478" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E2478" t="inlineStr"/>
-      <c r="F2478" t="inlineStr"/>
-      <c r="G2478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr"/>
-      <c r="D2479" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E2479" t="inlineStr"/>
-      <c r="F2479" t="inlineStr"/>
-      <c r="G2479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr"/>
-      <c r="D2480" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E2480" t="inlineStr"/>
-      <c r="F2480" t="inlineStr"/>
-      <c r="G2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr"/>
-      <c r="D2481" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E2481" t="inlineStr"/>
-      <c r="F2481" t="inlineStr"/>
-      <c r="G2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr"/>
-      <c r="D2482" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E2482" t="inlineStr"/>
-      <c r="F2482" t="inlineStr"/>
-      <c r="G2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr"/>
-      <c r="D2483" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E2483" t="inlineStr"/>
-      <c r="F2483" t="inlineStr"/>
-      <c r="G2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr"/>
-      <c r="D2484" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E2484" t="inlineStr"/>
-      <c r="F2484" t="inlineStr"/>
-      <c r="G2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr"/>
-      <c r="D2485" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E2485" t="inlineStr"/>
-      <c r="F2485" t="inlineStr"/>
-      <c r="G2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr"/>
-      <c r="D2486" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E2486" t="inlineStr"/>
-      <c r="F2486" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G2486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2487">
-      <c r="A2487" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr"/>
-      <c r="C2487" t="inlineStr"/>
-      <c r="D2487" t="inlineStr"/>
-      <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr"/>
-      <c r="G2487" t="inlineStr"/>
-    </row>
-    <row r="2488">
-      <c r="A2488" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2489">
-      <c r="A2489" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2489" t="inlineStr"/>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2489" t="inlineStr"/>
-      <c r="F2489" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2490">
-      <c r="A2490" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2490" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C2490" t="inlineStr"/>
-      <c r="D2490" t="inlineStr"/>
-      <c r="E2490" t="inlineStr"/>
-      <c r="F2490" t="inlineStr"/>
-      <c r="G2490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2491">
-      <c r="A2491" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2491" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C2491" t="inlineStr"/>
-      <c r="D2491" t="inlineStr"/>
-      <c r="E2491" t="inlineStr"/>
-      <c r="F2491" t="inlineStr"/>
-      <c r="G2491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2492">
-      <c r="A2492" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2492" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2492" t="inlineStr"/>
-      <c r="D2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E2492" t="inlineStr"/>
-      <c r="F2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2493">
-      <c r="A2493" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2493" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C2493" t="inlineStr"/>
-      <c r="D2493" t="inlineStr"/>
-      <c r="E2493" t="inlineStr"/>
-      <c r="F2493" t="inlineStr"/>
-      <c r="G2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2494">
-      <c r="A2494" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2494" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C2494" t="inlineStr"/>
-      <c r="D2494" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E2494" t="inlineStr"/>
-      <c r="F2494" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2495">
-      <c r="A2495" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2495" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2495" t="inlineStr"/>
-      <c r="D2495" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2495" t="inlineStr"/>
-      <c r="F2495" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2496">
-      <c r="A2496" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2496" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2496" t="inlineStr"/>
-      <c r="D2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E2496" t="inlineStr"/>
-      <c r="F2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2497">
-      <c r="A2497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2497" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2497" t="inlineStr"/>
-      <c r="D2497" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2497" t="inlineStr"/>
-      <c r="F2497" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2498">
-      <c r="A2498" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2498" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2498" t="inlineStr"/>
-      <c r="D2498" t="inlineStr"/>
-      <c r="E2498" t="inlineStr"/>
-      <c r="F2498" t="inlineStr"/>
-      <c r="G2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2499">
-      <c r="A2499" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2499" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2499" t="inlineStr"/>
-      <c r="D2499" t="inlineStr"/>
-      <c r="E2499" t="inlineStr"/>
-      <c r="F2499" t="inlineStr"/>
-      <c r="G2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2500">
-      <c r="A2500" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2500" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2500" t="inlineStr"/>
-      <c r="D2500" t="inlineStr"/>
-      <c r="E2500" t="inlineStr"/>
-      <c r="F2500" t="inlineStr"/>
-      <c r="G2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2501">
-      <c r="A2501" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2501" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2501" t="inlineStr"/>
-      <c r="D2501" t="inlineStr"/>
-      <c r="E2501" t="inlineStr"/>
-      <c r="F2501" t="inlineStr"/>
-      <c r="G2501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2502">
-      <c r="A2502" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2502" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2502" t="inlineStr"/>
-      <c r="D2502" t="inlineStr"/>
-      <c r="E2502" t="inlineStr"/>
-      <c r="F2502" t="inlineStr"/>
-      <c r="G2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2503">
-      <c r="A2503" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2503" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C2503" t="inlineStr"/>
-      <c r="D2503" t="inlineStr"/>
-      <c r="E2503" t="inlineStr"/>
-      <c r="F2503" t="inlineStr"/>
-      <c r="G2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2504">
-      <c r="A2504" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2504" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2504" t="inlineStr"/>
-      <c r="D2504" t="inlineStr"/>
-      <c r="E2504" t="inlineStr"/>
-      <c r="F2504" t="inlineStr"/>
-      <c r="G2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2505">
-      <c r="A2505" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr"/>
-      <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr"/>
-      <c r="E2505" t="inlineStr"/>
-      <c r="F2505" t="inlineStr"/>
-      <c r="G2505" t="inlineStr"/>
-    </row>
-    <row r="2506">
-      <c r="A2506" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr"/>
-      <c r="E2506" t="inlineStr"/>
-      <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2507" t="inlineStr"/>
-      <c r="D2507" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2507" t="inlineStr"/>
-      <c r="F2507" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G2507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2508" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2508" t="inlineStr"/>
-      <c r="D2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2508" t="inlineStr"/>
-      <c r="F2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2509">
-      <c r="A2509" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2509" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2509" t="inlineStr"/>
-      <c r="D2509" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2509" t="inlineStr"/>
-      <c r="F2509" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2510">
-      <c r="A2510" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2510" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2510" t="inlineStr"/>
-      <c r="D2510" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2510" t="inlineStr"/>
-      <c r="F2510" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2511">
-      <c r="A2511" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2511" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2511" t="inlineStr"/>
-      <c r="D2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2511" t="inlineStr"/>
-      <c r="F2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2512">
-      <c r="A2512" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2512" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2512" t="inlineStr"/>
-      <c r="D2512" t="inlineStr"/>
-      <c r="E2512" t="inlineStr"/>
-      <c r="F2512" t="inlineStr"/>
-      <c r="G2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2513">
-      <c r="A2513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2513" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2513" t="inlineStr"/>
-      <c r="D2513" t="inlineStr"/>
-      <c r="E2513" t="inlineStr"/>
-      <c r="F2513" t="inlineStr"/>
-      <c r="G2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2514">
-      <c r="A2514" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr"/>
-      <c r="C2514" t="inlineStr"/>
-      <c r="D2514" t="inlineStr"/>
-      <c r="E2514" t="inlineStr"/>
-      <c r="F2514" t="inlineStr"/>
-      <c r="G2514" t="inlineStr"/>
+      <c r="G2447" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2514"/>
+  <dimension ref="A1:G2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66161,10 +66161,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -66198,10 +66196,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2420">
@@ -66231,10 +66227,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2421">
@@ -66264,10 +66258,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -66301,10 +66293,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -66338,10 +66328,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -66371,10 +66359,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -66408,10 +66394,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2426">
@@ -66445,10 +66429,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -66474,10 +66456,8 @@
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -66499,10 +66479,8 @@
       </c>
       <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -66524,10 +66502,8 @@
       </c>
       <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -66545,10 +66521,8 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2431">
@@ -66570,10 +66544,8 @@
       </c>
       <c r="E2431" t="inlineStr"/>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2432">
@@ -66595,10 +66567,8 @@
       </c>
       <c r="E2432" t="inlineStr"/>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -66616,42 +66586,44 @@
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
       <c r="C2434" t="inlineStr"/>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/04</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2435" t="inlineStr"/>
-      <c r="D2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+      <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr">
@@ -66663,189 +66635,145 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr"/>
       <c r="C2436" t="inlineStr"/>
-      <c r="D2436" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr"/>
+      <c r="F2436" t="inlineStr"/>
+      <c r="G2436" t="inlineStr"/>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr"/>
-      <c r="D2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr"/>
+      <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr"/>
       <c r="D2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr"/>
       <c r="F2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr"/>
       <c r="D2439" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr"/>
       <c r="D2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2440" t="inlineStr"/>
       <c r="F2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr"/>
       <c r="D2441" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2441" t="inlineStr">
@@ -66857,24 +66785,24 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr"/>
       <c r="D2442" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G2442" t="inlineStr">
@@ -66886,30 +66814,18 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr"/>
-      <c r="D2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="F2443" t="inlineStr">
-        <is>
-          <t>3.0K</t>
-        </is>
-      </c>
+      <c r="D2443" t="inlineStr"/>
+      <c r="E2443" t="inlineStr"/>
+      <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr">
         <is>
           <t>3</t>
@@ -66919,30 +66835,18 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr"/>
-      <c r="D2444" t="inlineStr">
-        <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
-      <c r="F2444" t="inlineStr">
-        <is>
-          <t>140.0K</t>
-        </is>
-      </c>
+      <c r="D2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr"/>
+      <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr">
         <is>
           <t>3</t>
@@ -66952,1712 +66856,15 @@
     <row r="2445">
       <c r="A2445" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAY</t>
-        </is>
-      </c>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr"/>
       <c r="C2445" t="inlineStr"/>
-      <c r="D2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="E2446" t="inlineStr"/>
-      <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr"/>
-      <c r="D2447" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr"/>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr"/>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr"/>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr"/>
-      <c r="D2449" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr"/>
-      <c r="C2450" t="inlineStr"/>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr"/>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr"/>
-      <c r="C2452" t="inlineStr"/>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr"/>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr"/>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr"/>
-      <c r="D2455" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr"/>
-      <c r="D2456" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E2458" t="inlineStr"/>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr"/>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2459" t="inlineStr"/>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr"/>
-      <c r="D2460" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E2460" t="inlineStr"/>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr"/>
-      <c r="D2461" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E2461" t="inlineStr"/>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr"/>
-      <c r="C2462" t="inlineStr"/>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E2463" t="inlineStr"/>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr"/>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E2464" t="inlineStr"/>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr"/>
-      <c r="D2465" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E2465" t="inlineStr"/>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr"/>
-      <c r="D2466" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr"/>
-      <c r="D2467" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E2467" t="inlineStr"/>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr"/>
-      <c r="D2468" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E2468" t="inlineStr"/>
-      <c r="F2468" t="inlineStr"/>
-      <c r="G2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr"/>
-      <c r="D2469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2469" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr"/>
-      <c r="D2470" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr"/>
-      <c r="D2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2471" t="inlineStr"/>
-      <c r="F2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr"/>
-      <c r="D2472" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2472" t="inlineStr"/>
-      <c r="F2472" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G2472" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr"/>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E2473" t="inlineStr"/>
-      <c r="F2473" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr"/>
-      <c r="D2474" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E2474" t="inlineStr"/>
-      <c r="F2474" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr"/>
-      <c r="D2475" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E2475" t="inlineStr"/>
-      <c r="F2475" t="inlineStr"/>
-      <c r="G2475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr"/>
-      <c r="D2476" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
-      <c r="G2476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr"/>
-      <c r="D2477" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E2477" t="inlineStr"/>
-      <c r="F2477" t="inlineStr"/>
-      <c r="G2477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr"/>
-      <c r="D2478" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E2478" t="inlineStr"/>
-      <c r="F2478" t="inlineStr"/>
-      <c r="G2478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr"/>
-      <c r="D2479" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E2479" t="inlineStr"/>
-      <c r="F2479" t="inlineStr"/>
-      <c r="G2479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr"/>
-      <c r="D2480" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E2480" t="inlineStr"/>
-      <c r="F2480" t="inlineStr"/>
-      <c r="G2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr"/>
-      <c r="D2481" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E2481" t="inlineStr"/>
-      <c r="F2481" t="inlineStr"/>
-      <c r="G2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr"/>
-      <c r="D2482" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E2482" t="inlineStr"/>
-      <c r="F2482" t="inlineStr"/>
-      <c r="G2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr"/>
-      <c r="D2483" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E2483" t="inlineStr"/>
-      <c r="F2483" t="inlineStr"/>
-      <c r="G2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr"/>
-      <c r="D2484" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E2484" t="inlineStr"/>
-      <c r="F2484" t="inlineStr"/>
-      <c r="G2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr"/>
-      <c r="D2485" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E2485" t="inlineStr"/>
-      <c r="F2485" t="inlineStr"/>
-      <c r="G2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr"/>
-      <c r="D2486" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E2486" t="inlineStr"/>
-      <c r="F2486" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G2486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2487">
-      <c r="A2487" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr"/>
-      <c r="C2487" t="inlineStr"/>
-      <c r="D2487" t="inlineStr"/>
-      <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr"/>
-      <c r="G2487" t="inlineStr"/>
-    </row>
-    <row r="2488">
-      <c r="A2488" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2489">
-      <c r="A2489" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2489" t="inlineStr"/>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2489" t="inlineStr"/>
-      <c r="F2489" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2490">
-      <c r="A2490" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2490" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C2490" t="inlineStr"/>
-      <c r="D2490" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E2490" t="inlineStr"/>
-      <c r="F2490" t="inlineStr"/>
-      <c r="G2490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2491">
-      <c r="A2491" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2491" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C2491" t="inlineStr"/>
-      <c r="D2491" t="inlineStr"/>
-      <c r="E2491" t="inlineStr"/>
-      <c r="F2491" t="inlineStr"/>
-      <c r="G2491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2492">
-      <c r="A2492" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2492" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2492" t="inlineStr"/>
-      <c r="D2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E2492" t="inlineStr"/>
-      <c r="F2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2493">
-      <c r="A2493" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2493" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C2493" t="inlineStr"/>
-      <c r="D2493" t="inlineStr"/>
-      <c r="E2493" t="inlineStr"/>
-      <c r="F2493" t="inlineStr"/>
-      <c r="G2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2494">
-      <c r="A2494" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2494" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C2494" t="inlineStr"/>
-      <c r="D2494" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E2494" t="inlineStr"/>
-      <c r="F2494" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2495">
-      <c r="A2495" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2495" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2495" t="inlineStr"/>
-      <c r="D2495" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2495" t="inlineStr"/>
-      <c r="F2495" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2496">
-      <c r="A2496" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2496" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2496" t="inlineStr"/>
-      <c r="D2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E2496" t="inlineStr"/>
-      <c r="F2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2497">
-      <c r="A2497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2497" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2497" t="inlineStr"/>
-      <c r="D2497" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2497" t="inlineStr"/>
-      <c r="F2497" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2498">
-      <c r="A2498" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2498" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2498" t="inlineStr"/>
-      <c r="D2498" t="inlineStr"/>
-      <c r="E2498" t="inlineStr"/>
-      <c r="F2498" t="inlineStr"/>
-      <c r="G2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2499">
-      <c r="A2499" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2499" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2499" t="inlineStr"/>
-      <c r="D2499" t="inlineStr"/>
-      <c r="E2499" t="inlineStr"/>
-      <c r="F2499" t="inlineStr"/>
-      <c r="G2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2500">
-      <c r="A2500" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2500" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2500" t="inlineStr"/>
-      <c r="D2500" t="inlineStr"/>
-      <c r="E2500" t="inlineStr"/>
-      <c r="F2500" t="inlineStr"/>
-      <c r="G2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2501">
-      <c r="A2501" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2501" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2501" t="inlineStr"/>
-      <c r="D2501" t="inlineStr"/>
-      <c r="E2501" t="inlineStr"/>
-      <c r="F2501" t="inlineStr"/>
-      <c r="G2501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2502">
-      <c r="A2502" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2502" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2502" t="inlineStr"/>
-      <c r="D2502" t="inlineStr"/>
-      <c r="E2502" t="inlineStr"/>
-      <c r="F2502" t="inlineStr"/>
-      <c r="G2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2503">
-      <c r="A2503" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2503" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C2503" t="inlineStr"/>
-      <c r="D2503" t="inlineStr"/>
-      <c r="E2503" t="inlineStr"/>
-      <c r="F2503" t="inlineStr"/>
-      <c r="G2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2504">
-      <c r="A2504" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2504" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2504" t="inlineStr"/>
-      <c r="D2504" t="inlineStr"/>
-      <c r="E2504" t="inlineStr"/>
-      <c r="F2504" t="inlineStr"/>
-      <c r="G2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2505">
-      <c r="A2505" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr"/>
-      <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr"/>
-      <c r="E2505" t="inlineStr"/>
-      <c r="F2505" t="inlineStr"/>
-      <c r="G2505" t="inlineStr"/>
-    </row>
-    <row r="2506">
-      <c r="A2506" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr"/>
-      <c r="E2506" t="inlineStr"/>
-      <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2507" t="inlineStr"/>
-      <c r="D2507" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2507" t="inlineStr"/>
-      <c r="F2507" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G2507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2508" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2508" t="inlineStr"/>
-      <c r="D2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2508" t="inlineStr"/>
-      <c r="F2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2509">
-      <c r="A2509" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2509" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2509" t="inlineStr"/>
-      <c r="D2509" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2509" t="inlineStr"/>
-      <c r="F2509" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2510">
-      <c r="A2510" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2510" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2510" t="inlineStr"/>
-      <c r="D2510" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2510" t="inlineStr"/>
-      <c r="F2510" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2511">
-      <c r="A2511" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2511" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2511" t="inlineStr"/>
-      <c r="D2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2511" t="inlineStr"/>
-      <c r="F2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2512">
-      <c r="A2512" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2512" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2512" t="inlineStr"/>
-      <c r="D2512" t="inlineStr"/>
-      <c r="E2512" t="inlineStr"/>
-      <c r="F2512" t="inlineStr"/>
-      <c r="G2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2513">
-      <c r="A2513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2513" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2513" t="inlineStr"/>
-      <c r="D2513" t="inlineStr"/>
-      <c r="E2513" t="inlineStr"/>
-      <c r="F2513" t="inlineStr"/>
-      <c r="G2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2514">
-      <c r="A2514" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr"/>
-      <c r="C2514" t="inlineStr"/>
-      <c r="D2514" t="inlineStr"/>
-      <c r="E2514" t="inlineStr"/>
-      <c r="F2514" t="inlineStr"/>
-      <c r="G2514" t="inlineStr"/>
+      <c r="F2445" t="inlineStr"/>
+      <c r="G2445" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2514"/>
+  <dimension ref="A1:G2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66161,10 +66161,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -66198,10 +66196,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2420">
@@ -66231,10 +66227,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2421">
@@ -66264,10 +66258,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -66301,10 +66293,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -66338,10 +66328,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -66371,10 +66359,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -66408,10 +66394,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2426">
@@ -66445,10 +66429,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -66478,10 +66460,8 @@
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -66507,10 +66487,8 @@
       </c>
       <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -66536,10 +66514,8 @@
       </c>
       <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -66557,10 +66533,8 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2431">
@@ -66586,10 +66560,8 @@
       </c>
       <c r="E2431" t="inlineStr"/>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2432">
@@ -66615,10 +66587,8 @@
       </c>
       <c r="E2432" t="inlineStr"/>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -66636,42 +66606,44 @@
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
       <c r="C2434" t="inlineStr"/>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/04</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2435" t="inlineStr"/>
-      <c r="D2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+      <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr">
@@ -66683,189 +66655,145 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr"/>
       <c r="C2436" t="inlineStr"/>
-      <c r="D2436" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr"/>
+      <c r="F2436" t="inlineStr"/>
+      <c r="G2436" t="inlineStr"/>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr"/>
-      <c r="D2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr"/>
+      <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr"/>
       <c r="D2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr"/>
       <c r="F2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr"/>
       <c r="D2439" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr"/>
       <c r="D2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2440" t="inlineStr"/>
       <c r="F2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr"/>
       <c r="D2441" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2441" t="inlineStr">
@@ -66877,24 +66805,24 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr"/>
       <c r="D2442" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G2442" t="inlineStr">
@@ -66906,30 +66834,18 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr"/>
-      <c r="D2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="F2443" t="inlineStr">
-        <is>
-          <t>3.0K</t>
-        </is>
-      </c>
+      <c r="D2443" t="inlineStr"/>
+      <c r="E2443" t="inlineStr"/>
+      <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr">
         <is>
           <t>3</t>
@@ -66939,30 +66855,18 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr"/>
-      <c r="D2444" t="inlineStr">
-        <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
-      <c r="F2444" t="inlineStr">
-        <is>
-          <t>140.0K</t>
-        </is>
-      </c>
+      <c r="D2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr"/>
+      <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr">
         <is>
           <t>3</t>
@@ -66972,1732 +66876,15 @@
     <row r="2445">
       <c r="A2445" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAY</t>
-        </is>
-      </c>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr"/>
       <c r="C2445" t="inlineStr"/>
-      <c r="D2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="E2446" t="inlineStr"/>
-      <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr"/>
-      <c r="D2447" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr"/>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr"/>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr"/>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr"/>
-      <c r="D2449" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr"/>
-      <c r="C2450" t="inlineStr"/>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr"/>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr"/>
-      <c r="C2452" t="inlineStr"/>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr"/>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr"/>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr"/>
-      <c r="D2455" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr"/>
-      <c r="D2456" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E2458" t="inlineStr"/>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr"/>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2459" t="inlineStr"/>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr"/>
-      <c r="D2460" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E2460" t="inlineStr"/>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr"/>
-      <c r="D2461" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E2461" t="inlineStr"/>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr"/>
-      <c r="C2462" t="inlineStr"/>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E2463" t="inlineStr"/>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr"/>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E2464" t="inlineStr"/>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr"/>
-      <c r="D2465" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E2465" t="inlineStr"/>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr"/>
-      <c r="D2466" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr"/>
-      <c r="D2467" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E2467" t="inlineStr"/>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr"/>
-      <c r="D2468" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E2468" t="inlineStr"/>
-      <c r="F2468" t="inlineStr"/>
-      <c r="G2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr"/>
-      <c r="D2469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2469" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr"/>
-      <c r="D2470" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr"/>
-      <c r="D2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2471" t="inlineStr"/>
-      <c r="F2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr"/>
-      <c r="D2472" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2472" t="inlineStr"/>
-      <c r="F2472" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G2472" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr"/>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E2473" t="inlineStr"/>
-      <c r="F2473" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr"/>
-      <c r="D2474" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E2474" t="inlineStr"/>
-      <c r="F2474" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr"/>
-      <c r="D2475" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E2475" t="inlineStr"/>
-      <c r="F2475" t="inlineStr"/>
-      <c r="G2475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr"/>
-      <c r="D2476" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
-      <c r="G2476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr"/>
-      <c r="D2477" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E2477" t="inlineStr"/>
-      <c r="F2477" t="inlineStr"/>
-      <c r="G2477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr"/>
-      <c r="D2478" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E2478" t="inlineStr"/>
-      <c r="F2478" t="inlineStr"/>
-      <c r="G2478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr"/>
-      <c r="D2479" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E2479" t="inlineStr"/>
-      <c r="F2479" t="inlineStr"/>
-      <c r="G2479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr"/>
-      <c r="D2480" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E2480" t="inlineStr"/>
-      <c r="F2480" t="inlineStr"/>
-      <c r="G2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr"/>
-      <c r="D2481" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E2481" t="inlineStr"/>
-      <c r="F2481" t="inlineStr"/>
-      <c r="G2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr"/>
-      <c r="D2482" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E2482" t="inlineStr"/>
-      <c r="F2482" t="inlineStr"/>
-      <c r="G2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr"/>
-      <c r="D2483" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E2483" t="inlineStr"/>
-      <c r="F2483" t="inlineStr"/>
-      <c r="G2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr"/>
-      <c r="D2484" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E2484" t="inlineStr"/>
-      <c r="F2484" t="inlineStr"/>
-      <c r="G2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr"/>
-      <c r="D2485" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E2485" t="inlineStr"/>
-      <c r="F2485" t="inlineStr"/>
-      <c r="G2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr"/>
-      <c r="D2486" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E2486" t="inlineStr"/>
-      <c r="F2486" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G2486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2487">
-      <c r="A2487" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr"/>
-      <c r="C2487" t="inlineStr"/>
-      <c r="D2487" t="inlineStr"/>
-      <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr"/>
-      <c r="G2487" t="inlineStr"/>
-    </row>
-    <row r="2488">
-      <c r="A2488" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2489">
-      <c r="A2489" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2489" t="inlineStr"/>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2489" t="inlineStr"/>
-      <c r="F2489" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2490">
-      <c r="A2490" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2490" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C2490" t="inlineStr"/>
-      <c r="D2490" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E2490" t="inlineStr"/>
-      <c r="F2490" t="inlineStr"/>
-      <c r="G2490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2491">
-      <c r="A2491" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2491" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C2491" t="inlineStr"/>
-      <c r="D2491" t="inlineStr"/>
-      <c r="E2491" t="inlineStr"/>
-      <c r="F2491" t="inlineStr"/>
-      <c r="G2491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2492">
-      <c r="A2492" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2492" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2492" t="inlineStr"/>
-      <c r="D2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E2492" t="inlineStr"/>
-      <c r="F2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2493">
-      <c r="A2493" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2493" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C2493" t="inlineStr"/>
-      <c r="D2493" t="inlineStr"/>
-      <c r="E2493" t="inlineStr"/>
-      <c r="F2493" t="inlineStr"/>
-      <c r="G2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2494">
-      <c r="A2494" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2494" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C2494" t="inlineStr"/>
-      <c r="D2494" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E2494" t="inlineStr"/>
-      <c r="F2494" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2495">
-      <c r="A2495" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2495" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2495" t="inlineStr"/>
-      <c r="D2495" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2495" t="inlineStr"/>
-      <c r="F2495" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2496">
-      <c r="A2496" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2496" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2496" t="inlineStr"/>
-      <c r="D2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E2496" t="inlineStr"/>
-      <c r="F2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2497">
-      <c r="A2497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2497" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2497" t="inlineStr"/>
-      <c r="D2497" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2497" t="inlineStr"/>
-      <c r="F2497" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2498">
-      <c r="A2498" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2498" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2498" t="inlineStr"/>
-      <c r="D2498" t="inlineStr">
-        <is>
-          <t>122Bcf</t>
-        </is>
-      </c>
-      <c r="E2498" t="inlineStr"/>
-      <c r="F2498" t="inlineStr"/>
-      <c r="G2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2499">
-      <c r="A2499" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2499" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2499" t="inlineStr"/>
-      <c r="D2499" t="inlineStr">
-        <is>
-          <t>4.170%</t>
-        </is>
-      </c>
-      <c r="E2499" t="inlineStr"/>
-      <c r="F2499" t="inlineStr"/>
-      <c r="G2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2500">
-      <c r="A2500" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2500" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2500" t="inlineStr"/>
-      <c r="D2500" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E2500" t="inlineStr"/>
-      <c r="F2500" t="inlineStr"/>
-      <c r="G2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2501">
-      <c r="A2501" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2501" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2501" t="inlineStr"/>
-      <c r="D2501" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="E2501" t="inlineStr"/>
-      <c r="F2501" t="inlineStr"/>
-      <c r="G2501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2502">
-      <c r="A2502" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2502" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2502" t="inlineStr"/>
-      <c r="D2502" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E2502" t="inlineStr"/>
-      <c r="F2502" t="inlineStr"/>
-      <c r="G2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2503">
-      <c r="A2503" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2503" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C2503" t="inlineStr"/>
-      <c r="D2503" t="inlineStr"/>
-      <c r="E2503" t="inlineStr"/>
-      <c r="F2503" t="inlineStr"/>
-      <c r="G2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2504">
-      <c r="A2504" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2504" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2504" t="inlineStr"/>
-      <c r="D2504" t="inlineStr"/>
-      <c r="E2504" t="inlineStr"/>
-      <c r="F2504" t="inlineStr"/>
-      <c r="G2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2505">
-      <c r="A2505" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr"/>
-      <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr"/>
-      <c r="E2505" t="inlineStr"/>
-      <c r="F2505" t="inlineStr"/>
-      <c r="G2505" t="inlineStr"/>
-    </row>
-    <row r="2506">
-      <c r="A2506" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr"/>
-      <c r="E2506" t="inlineStr"/>
-      <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2507" t="inlineStr"/>
-      <c r="D2507" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2507" t="inlineStr"/>
-      <c r="F2507" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G2507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2508" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2508" t="inlineStr"/>
-      <c r="D2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2508" t="inlineStr"/>
-      <c r="F2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2509">
-      <c r="A2509" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2509" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2509" t="inlineStr"/>
-      <c r="D2509" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2509" t="inlineStr"/>
-      <c r="F2509" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2510">
-      <c r="A2510" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2510" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2510" t="inlineStr"/>
-      <c r="D2510" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2510" t="inlineStr"/>
-      <c r="F2510" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2511">
-      <c r="A2511" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2511" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2511" t="inlineStr"/>
-      <c r="D2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2511" t="inlineStr"/>
-      <c r="F2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2512">
-      <c r="A2512" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2512" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2512" t="inlineStr"/>
-      <c r="D2512" t="inlineStr"/>
-      <c r="E2512" t="inlineStr"/>
-      <c r="F2512" t="inlineStr"/>
-      <c r="G2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2513">
-      <c r="A2513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2513" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2513" t="inlineStr"/>
-      <c r="D2513" t="inlineStr"/>
-      <c r="E2513" t="inlineStr"/>
-      <c r="F2513" t="inlineStr"/>
-      <c r="G2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2514">
-      <c r="A2514" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr"/>
-      <c r="C2514" t="inlineStr"/>
-      <c r="D2514" t="inlineStr"/>
-      <c r="E2514" t="inlineStr"/>
-      <c r="F2514" t="inlineStr"/>
-      <c r="G2514" t="inlineStr"/>
+      <c r="F2445" t="inlineStr"/>
+      <c r="G2445" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2514"/>
+  <dimension ref="A1:G2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66161,10 +66161,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -66198,10 +66196,8 @@
           <t>$-66.6B</t>
         </is>
       </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2420">
@@ -66231,10 +66227,8 @@
           <t>$284.4B</t>
         </is>
       </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2421">
@@ -66264,10 +66258,8 @@
           <t>$351.0B</t>
         </is>
       </c>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -66301,10 +66293,8 @@
           <t>243.0K</t>
         </is>
       </c>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2423">
@@ -66338,10 +66328,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -66371,10 +66359,8 @@
           <t>232.0K</t>
         </is>
       </c>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -66408,10 +66394,8 @@
           <t>-0.8%</t>
         </is>
       </c>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2426">
@@ -66445,10 +66429,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -66478,10 +66460,8 @@
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -66507,10 +66487,8 @@
       </c>
       <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -66536,10 +66514,8 @@
       </c>
       <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -66557,10 +66533,8 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2431">
@@ -66586,10 +66560,8 @@
       </c>
       <c r="E2431" t="inlineStr"/>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2432">
@@ -66615,10 +66587,8 @@
       </c>
       <c r="E2432" t="inlineStr"/>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -66636,46 +66606,44 @@
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>Friday June 06 2025</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
       <c r="C2434" t="inlineStr"/>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUN/04</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr"/>
+      <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr">
@@ -66687,189 +66655,149 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsMAY</t>
-        </is>
-      </c>
+          <t>Friday June 13 2025</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr"/>
       <c r="C2436" t="inlineStr"/>
-      <c r="D2436" t="inlineStr">
-        <is>
-          <t>177K</t>
-        </is>
-      </c>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr"/>
+      <c r="F2436" t="inlineStr"/>
+      <c r="G2436" t="inlineStr"/>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>Unemployment RateMAY</t>
+          <t>Fed Balance SheetJUN/11</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr"/>
       <c r="D2437" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>$6.67T</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr"/>
+      <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMMAY</t>
+          <t>Michigan Consumer Sentiment PrelJUN</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr"/>
       <c r="D2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr"/>
       <c r="F2438" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G2438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr"/>
       <c r="D2439" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E2439" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G2439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>Participation RateMAY</t>
+          <t>Michigan Consumer Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr"/>
       <c r="D2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="E2440" t="inlineStr"/>
       <c r="F2440" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G2440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>Average Weekly HoursMAY</t>
+          <t>Michigan Current Conditions PrelJUN</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr"/>
       <c r="D2441" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>58.9</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="G2441" t="inlineStr">
@@ -66881,24 +66809,24 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>Government PayrollsMAY</t>
+          <t>Michigan Inflation Expectations PrelJUN</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr"/>
       <c r="D2442" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr">
         <is>
-          <t>-10.0K</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G2442" t="inlineStr">
@@ -66910,30 +66838,18 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsMAY</t>
+          <t>Baker Hughes Oil Rig CountJUN/13</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr"/>
-      <c r="D2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>-1K</t>
-        </is>
-      </c>
-      <c r="F2443" t="inlineStr">
-        <is>
-          <t>3.0K</t>
-        </is>
-      </c>
+      <c r="D2443" t="inlineStr"/>
+      <c r="E2443" t="inlineStr"/>
+      <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr">
         <is>
           <t>3</t>
@@ -66943,30 +66859,18 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateMAY</t>
+          <t>Baker Hughes Total Rigs CountJUN/13</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr"/>
-      <c r="D2444" t="inlineStr">
-        <is>
-          <t>167K</t>
-        </is>
-      </c>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>120K</t>
-        </is>
-      </c>
-      <c r="F2444" t="inlineStr">
-        <is>
-          <t>140.0K</t>
-        </is>
-      </c>
+      <c r="D2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr"/>
+      <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr">
         <is>
           <t>3</t>
@@ -66976,1736 +66880,15 @@
     <row r="2445">
       <c r="A2445" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAY</t>
-        </is>
-      </c>
+          <t>Sunday June 15 2025</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr"/>
       <c r="C2445" t="inlineStr"/>
-      <c r="D2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr"/>
-      <c r="D2446" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="E2446" t="inlineStr"/>
-      <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/06</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr"/>
-      <c r="D2447" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr"/>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr"/>
-      <c r="D2448" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr"/>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr"/>
-      <c r="D2449" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>Saturday June 07 2025</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr"/>
-      <c r="C2450" t="inlineStr"/>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeAPR</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr"/>
-      <c r="D2451" t="inlineStr">
-        <is>
-          <t>$10.17B</t>
-        </is>
-      </c>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>$10.85B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>$9.0B</t>
-        </is>
-      </c>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>Monday June 09 2025</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr"/>
-      <c r="C2452" t="inlineStr"/>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr"/>
-      <c r="D2453" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAY</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr"/>
-      <c r="D2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr"/>
-      <c r="D2455" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr"/>
-      <c r="D2456" t="inlineStr">
-        <is>
-          <t>4.150%</t>
-        </is>
-      </c>
-      <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Tuesday June 10 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr"/>
-      <c r="D2458" t="inlineStr">
-        <is>
-          <t>95.8</t>
-        </is>
-      </c>
-      <c r="E2458" t="inlineStr"/>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>Redbook YoYJUN/07</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr"/>
-      <c r="D2459" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="E2459" t="inlineStr"/>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr"/>
-      <c r="D2460" t="inlineStr">
-        <is>
-          <t>3.930%</t>
-        </is>
-      </c>
-      <c r="E2460" t="inlineStr"/>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr"/>
-      <c r="D2461" t="inlineStr">
-        <is>
-          <t>3.824%</t>
-        </is>
-      </c>
-      <c r="E2461" t="inlineStr"/>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>Wednesday June 11 2025</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr"/>
-      <c r="C2462" t="inlineStr"/>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr"/>
-      <c r="D2463" t="inlineStr">
-        <is>
-          <t>-3.3M</t>
-        </is>
-      </c>
-      <c r="E2463" t="inlineStr"/>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUN/06</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr"/>
-      <c r="D2464" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E2464" t="inlineStr"/>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUN/06</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr"/>
-      <c r="D2465" t="inlineStr">
-        <is>
-          <t>-3.9%</t>
-        </is>
-      </c>
-      <c r="E2465" t="inlineStr"/>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr"/>
-      <c r="D2466" t="inlineStr">
-        <is>
-          <t>226.4</t>
-        </is>
-      </c>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr"/>
-      <c r="D2467" t="inlineStr">
-        <is>
-          <t>611.8</t>
-        </is>
-      </c>
-      <c r="E2467" t="inlineStr"/>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUN/06</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr"/>
-      <c r="D2468" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E2468" t="inlineStr"/>
-      <c r="F2468" t="inlineStr"/>
-      <c r="G2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr"/>
-      <c r="D2469" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2469" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr"/>
-      <c r="D2470" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2470" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr"/>
-      <c r="D2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2471" t="inlineStr"/>
-      <c r="F2471" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr"/>
-      <c r="D2472" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2472" t="inlineStr"/>
-      <c r="F2472" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G2472" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>CPIMAY</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr"/>
-      <c r="D2473" t="inlineStr">
-        <is>
-          <t>320.795</t>
-        </is>
-      </c>
-      <c r="E2473" t="inlineStr"/>
-      <c r="F2473" t="inlineStr">
-        <is>
-          <t>321.9</t>
-        </is>
-      </c>
-      <c r="G2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>CPI s.aMAY</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr"/>
-      <c r="D2474" t="inlineStr">
-        <is>
-          <t>320.321</t>
-        </is>
-      </c>
-      <c r="E2474" t="inlineStr"/>
-      <c r="F2474" t="inlineStr">
-        <is>
-          <t>321.6</t>
-        </is>
-      </c>
-      <c r="G2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr"/>
-      <c r="D2475" t="inlineStr">
-        <is>
-          <t>-4.304M</t>
-        </is>
-      </c>
-      <c r="E2475" t="inlineStr"/>
-      <c r="F2475" t="inlineStr"/>
-      <c r="G2475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr"/>
-      <c r="D2476" t="inlineStr">
-        <is>
-          <t>5.219M</t>
-        </is>
-      </c>
-      <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
-      <c r="G2476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr"/>
-      <c r="D2477" t="inlineStr">
-        <is>
-          <t>0.389M</t>
-        </is>
-      </c>
-      <c r="E2477" t="inlineStr"/>
-      <c r="F2477" t="inlineStr"/>
-      <c r="G2477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr"/>
-      <c r="D2478" t="inlineStr">
-        <is>
-          <t>0.576M</t>
-        </is>
-      </c>
-      <c r="E2478" t="inlineStr"/>
-      <c r="F2478" t="inlineStr"/>
-      <c r="G2478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr"/>
-      <c r="D2479" t="inlineStr">
-        <is>
-          <t>0.182M</t>
-        </is>
-      </c>
-      <c r="E2479" t="inlineStr"/>
-      <c r="F2479" t="inlineStr"/>
-      <c r="G2479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr"/>
-      <c r="D2480" t="inlineStr">
-        <is>
-          <t>4.23M</t>
-        </is>
-      </c>
-      <c r="E2480" t="inlineStr"/>
-      <c r="F2480" t="inlineStr"/>
-      <c r="G2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr"/>
-      <c r="D2481" t="inlineStr">
-        <is>
-          <t>-0.714M</t>
-        </is>
-      </c>
-      <c r="E2481" t="inlineStr"/>
-      <c r="F2481" t="inlineStr"/>
-      <c r="G2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr"/>
-      <c r="D2482" t="inlineStr">
-        <is>
-          <t>-0.282M</t>
-        </is>
-      </c>
-      <c r="E2482" t="inlineStr"/>
-      <c r="F2482" t="inlineStr"/>
-      <c r="G2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr"/>
-      <c r="D2483" t="inlineStr">
-        <is>
-          <t>0.67M</t>
-        </is>
-      </c>
-      <c r="E2483" t="inlineStr"/>
-      <c r="F2483" t="inlineStr"/>
-      <c r="G2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr"/>
-      <c r="D2484" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E2484" t="inlineStr"/>
-      <c r="F2484" t="inlineStr"/>
-      <c r="G2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr"/>
-      <c r="D2485" t="inlineStr">
-        <is>
-          <t>4.342%</t>
-        </is>
-      </c>
-      <c r="E2485" t="inlineStr"/>
-      <c r="F2485" t="inlineStr"/>
-      <c r="G2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAY</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr"/>
-      <c r="D2486" t="inlineStr">
-        <is>
-          <t>$258B</t>
-        </is>
-      </c>
-      <c r="E2486" t="inlineStr"/>
-      <c r="F2486" t="inlineStr">
-        <is>
-          <t>$-312.0B</t>
-        </is>
-      </c>
-      <c r="G2486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2487">
-      <c r="A2487" t="inlineStr">
-        <is>
-          <t>Thursday June 12 2025</t>
-        </is>
-      </c>
-      <c r="B2487" t="inlineStr"/>
-      <c r="C2487" t="inlineStr"/>
-      <c r="D2487" t="inlineStr"/>
-      <c r="E2487" t="inlineStr"/>
-      <c r="F2487" t="inlineStr"/>
-      <c r="G2487" t="inlineStr"/>
-    </row>
-    <row r="2488">
-      <c r="A2488" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2488" t="inlineStr">
-        <is>
-          <t>PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2488" t="inlineStr"/>
-      <c r="D2488" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E2488" t="inlineStr"/>
-      <c r="F2488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2489">
-      <c r="A2489" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2489" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2489" t="inlineStr"/>
-      <c r="D2489" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2489" t="inlineStr"/>
-      <c r="F2489" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2489" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2490">
-      <c r="A2490" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2490" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUN/07</t>
-        </is>
-      </c>
-      <c r="C2490" t="inlineStr"/>
-      <c r="D2490" t="inlineStr">
-        <is>
-          <t>247K</t>
-        </is>
-      </c>
-      <c r="E2490" t="inlineStr"/>
-      <c r="F2490" t="inlineStr"/>
-      <c r="G2490" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2491">
-      <c r="A2491" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2491" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/31</t>
-        </is>
-      </c>
-      <c r="C2491" t="inlineStr"/>
-      <c r="D2491" t="inlineStr"/>
-      <c r="E2491" t="inlineStr"/>
-      <c r="F2491" t="inlineStr"/>
-      <c r="G2491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2492">
-      <c r="A2492" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2492" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2492" t="inlineStr"/>
-      <c r="D2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E2492" t="inlineStr"/>
-      <c r="F2492" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2493">
-      <c r="A2493" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2493" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUN/07</t>
-        </is>
-      </c>
-      <c r="C2493" t="inlineStr"/>
-      <c r="D2493" t="inlineStr"/>
-      <c r="E2493" t="inlineStr"/>
-      <c r="F2493" t="inlineStr"/>
-      <c r="G2493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2494">
-      <c r="A2494" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2494" t="inlineStr">
-        <is>
-          <t>PPIMAY</t>
-        </is>
-      </c>
-      <c r="C2494" t="inlineStr"/>
-      <c r="D2494" t="inlineStr">
-        <is>
-          <t>147.677</t>
-        </is>
-      </c>
-      <c r="E2494" t="inlineStr"/>
-      <c r="F2494" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2495">
-      <c r="A2495" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2495" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAY</t>
-        </is>
-      </c>
-      <c r="C2495" t="inlineStr"/>
-      <c r="D2495" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2495" t="inlineStr"/>
-      <c r="F2495" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2496">
-      <c r="A2496" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2496" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2496" t="inlineStr"/>
-      <c r="D2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E2496" t="inlineStr"/>
-      <c r="F2496" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2497">
-      <c r="A2497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2497" t="inlineStr">
-        <is>
-          <t>PPI YoYMAY</t>
-        </is>
-      </c>
-      <c r="C2497" t="inlineStr"/>
-      <c r="D2497" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2497" t="inlineStr"/>
-      <c r="F2497" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2498">
-      <c r="A2498" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2498" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUN/06</t>
-        </is>
-      </c>
-      <c r="C2498" t="inlineStr"/>
-      <c r="D2498" t="inlineStr">
-        <is>
-          <t>122Bcf</t>
-        </is>
-      </c>
-      <c r="E2498" t="inlineStr"/>
-      <c r="F2498" t="inlineStr"/>
-      <c r="G2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2499">
-      <c r="A2499" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2499" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2499" t="inlineStr"/>
-      <c r="D2499" t="inlineStr">
-        <is>
-          <t>4.170%</t>
-        </is>
-      </c>
-      <c r="E2499" t="inlineStr"/>
-      <c r="F2499" t="inlineStr"/>
-      <c r="G2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2500">
-      <c r="A2500" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2500" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2500" t="inlineStr"/>
-      <c r="D2500" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E2500" t="inlineStr"/>
-      <c r="F2500" t="inlineStr"/>
-      <c r="G2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2501">
-      <c r="A2501" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2501" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2501" t="inlineStr"/>
-      <c r="D2501" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="E2501" t="inlineStr"/>
-      <c r="F2501" t="inlineStr"/>
-      <c r="G2501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2502">
-      <c r="A2502" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2502" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUN/12</t>
-        </is>
-      </c>
-      <c r="C2502" t="inlineStr"/>
-      <c r="D2502" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E2502" t="inlineStr"/>
-      <c r="F2502" t="inlineStr"/>
-      <c r="G2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2503">
-      <c r="A2503" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2503" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C2503" t="inlineStr"/>
-      <c r="D2503" t="inlineStr"/>
-      <c r="E2503" t="inlineStr"/>
-      <c r="F2503" t="inlineStr"/>
-      <c r="G2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2504">
-      <c r="A2504" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2504" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2504" t="inlineStr"/>
-      <c r="D2504" t="inlineStr"/>
-      <c r="E2504" t="inlineStr"/>
-      <c r="F2504" t="inlineStr"/>
-      <c r="G2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2505">
-      <c r="A2505" t="inlineStr">
-        <is>
-          <t>Friday June 13 2025</t>
-        </is>
-      </c>
-      <c r="B2505" t="inlineStr"/>
-      <c r="C2505" t="inlineStr"/>
-      <c r="D2505" t="inlineStr"/>
-      <c r="E2505" t="inlineStr"/>
-      <c r="F2505" t="inlineStr"/>
-      <c r="G2505" t="inlineStr"/>
-    </row>
-    <row r="2506">
-      <c r="A2506" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2506" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUN/11</t>
-        </is>
-      </c>
-      <c r="C2506" t="inlineStr"/>
-      <c r="D2506" t="inlineStr">
-        <is>
-          <t>$6.67T</t>
-        </is>
-      </c>
-      <c r="E2506" t="inlineStr"/>
-      <c r="F2506" t="inlineStr"/>
-      <c r="G2506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2507" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2507" t="inlineStr"/>
-      <c r="D2507" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2507" t="inlineStr"/>
-      <c r="F2507" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G2507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2508" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2508" t="inlineStr"/>
-      <c r="D2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E2508" t="inlineStr"/>
-      <c r="F2508" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2509">
-      <c r="A2509" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2509" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2509" t="inlineStr"/>
-      <c r="D2509" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="E2509" t="inlineStr"/>
-      <c r="F2509" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2510">
-      <c r="A2510" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2510" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2510" t="inlineStr"/>
-      <c r="D2510" t="inlineStr">
-        <is>
-          <t>58.9</t>
-        </is>
-      </c>
-      <c r="E2510" t="inlineStr"/>
-      <c r="F2510" t="inlineStr">
-        <is>
-          <t>58.8</t>
-        </is>
-      </c>
-      <c r="G2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2511">
-      <c r="A2511" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2511" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelJUN</t>
-        </is>
-      </c>
-      <c r="C2511" t="inlineStr"/>
-      <c r="D2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E2511" t="inlineStr"/>
-      <c r="F2511" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2512">
-      <c r="A2512" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2512" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2512" t="inlineStr"/>
-      <c r="D2512" t="inlineStr"/>
-      <c r="E2512" t="inlineStr"/>
-      <c r="F2512" t="inlineStr"/>
-      <c r="G2512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2513">
-      <c r="A2513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2513" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUN/13</t>
-        </is>
-      </c>
-      <c r="C2513" t="inlineStr"/>
-      <c r="D2513" t="inlineStr"/>
-      <c r="E2513" t="inlineStr"/>
-      <c r="F2513" t="inlineStr"/>
-      <c r="G2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2514">
-      <c r="A2514" t="inlineStr">
-        <is>
-          <t>Sunday June 15 2025</t>
-        </is>
-      </c>
-      <c r="B2514" t="inlineStr"/>
-      <c r="C2514" t="inlineStr"/>
-      <c r="D2514" t="inlineStr"/>
-      <c r="E2514" t="inlineStr"/>
-      <c r="F2514" t="inlineStr"/>
-      <c r="G2514" t="inlineStr"/>
+      <c r="F2445" t="inlineStr"/>
+      <c r="G2445" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
